--- a/data/trans_camb/P7A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7A_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9,37</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10,17</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-7,6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,83</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-9,4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,26</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>2,81</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,63</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-4,02</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,98</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,64</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-8,33</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 11,16</t>
+          <t>-6,08; 11,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 12,23</t>
+          <t>-6,5; 10,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 21,23</t>
+          <t>-0,47; 19,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 8,08</t>
+          <t>0,59; 21,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 5,68</t>
+          <t>-19,02; 5,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 6,98</t>
+          <t>-7,22; 13,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 3,71</t>
+          <t>-10,6; 4,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 12,61</t>
+          <t>-9,33; 6,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 6,43</t>
+          <t>-11,66; 3,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 6,74</t>
+          <t>-3,61; 17,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 9,59</t>
+          <t>-19,15; 0,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 7,5</t>
+          <t>-16,33; 4,32</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 5,65</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 6,02</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 8,78</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 16,12</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; -0,14</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 7,33</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>61,27%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>61,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,51%</t>
+          <t>-28,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-23,69%</t>
+          <t>-16,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>-7,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>-22,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>41,91%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>-39,02%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>-29,87%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>51,68%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-32,86%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-3,92%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 94,1</t>
+          <t>-30,37; 90,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 96,8</t>
+          <t>-34,11; 86,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 175,91</t>
+          <t>-2,59; 164,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 63,58</t>
+          <t>0,72; 166,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,9; 43,94</t>
+          <t>-58,0; 31,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,46; 56,57</t>
+          <t>-34,98; 132,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 34,35</t>
+          <t>-50,65; 45,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 93,63</t>
+          <t>-42,54; 53,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 46,52</t>
+          <t>-53,94; 31,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 49,16</t>
+          <t>-17,65; 141,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 69,19</t>
+          <t>-64,45; 3,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 51,17</t>
+          <t>-59,83; 31,63</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-30,59; 41,21</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-31,57; 44,34</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-21,31; 61,84</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 114,97</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-51,68; -0,18</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-34,98; 54,22</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>-2,63</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>3,41</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,72</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 11,28</t>
+          <t>-7,22; 10,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 8,57</t>
+          <t>-6,71; 10,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 2,99</t>
+          <t>-12,96; 4,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 17,27</t>
+          <t>-9,03; 11,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 9,14</t>
+          <t>-8,34; 14,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 4,13</t>
+          <t>-12,54; 12,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 6,16</t>
+          <t>-5,35; 8,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 5,2</t>
+          <t>-9,21; 4,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 7,39</t>
+          <t>-7,0; 6,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 4,54</t>
+          <t>-9,83; 5,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 2,71</t>
+          <t>-5,45; 11,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 8,5</t>
+          <t>-3,8; 10,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 7,42</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 4,5</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,72; 2,2</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 6,47</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 9,42</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 8,67</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,81%</t>
+          <t>-25,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>-6,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,3%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,77%</t>
+          <t>-16,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>-2,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>-10,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-16,36%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-3,94%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-15,64%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 79,39</t>
+          <t>-32,6; 68,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 57,99</t>
+          <t>-29,34; 74,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,15; 22,21</t>
+          <t>-54,81; 27,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 119,76</t>
+          <t>-38,15; 75,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,32; 74,91</t>
+          <t>-32,57; 93,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,39; 34,49</t>
+          <t>-41,69; 68,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,36; 50,78</t>
+          <t>-29,45; 67,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 39,16</t>
+          <t>-48,99; 35,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 50,2</t>
+          <t>-36,46; 55,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 31,72</t>
+          <t>-51,9; 40,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 19,85</t>
+          <t>-30,97; 105,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-23,74; 58,68</t>
+          <t>-23,5; 106,52</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-23,33; 51,55</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-32,34; 30,72</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-42,0; 14,93</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-31,83; 43,81</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-23,21; 65,57</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-28,18; 54,35</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>5,53</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 3,2</t>
+          <t>-7,85; 4,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 5,2</t>
+          <t>-5,79; 5,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 6,05</t>
+          <t>-5,66; 5,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 10,58</t>
+          <t>-9,0; 2,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,59</t>
+          <t>2,62; 16,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 3,73</t>
+          <t>-5,25; 9,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,45</t>
+          <t>-5,17; 4,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 3,92</t>
+          <t>-5,9; 3,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 2,67</t>
+          <t>-6,0; 3,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 2,82</t>
+          <t>-6,23; 4,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 3,03</t>
+          <t>-4,71; 6,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 6,09</t>
+          <t>-4,04; 7,26</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 3,03</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 2,82</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 3,13</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 2,09</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 10,08</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 6,26</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-19,11%</t>
+          <t>-14,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>-23,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,25%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,04%</t>
+          <t>-9,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>-8,97%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>-9,52%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-3,62%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-7,79%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-4,42%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-3,55%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-16,65%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>58,26%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 34,12</t>
+          <t>-50,95; 49,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,04; 58,7</t>
+          <t>-39,28; 59,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,45; 66,38</t>
+          <t>-37,89; 63,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 113,51</t>
+          <t>-57,44; 29,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 53,0</t>
+          <t>18,01; 244,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,07; 45,1</t>
+          <t>-27,16; 81,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 40,82</t>
+          <t>-38,98; 55,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,63; 48,36</t>
+          <t>-41,88; 43,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 28,42</t>
+          <t>-44,36; 41,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 29,61</t>
+          <t>-46,63; 56,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 31,39</t>
+          <t>-37,83; 99,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 63,38</t>
+          <t>-33,78; 104,58</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-34,04; 32,47</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-33,11; 29,79</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-31,12; 34,59</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-47,11; 22,08</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 127,17</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; 53,35</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-3,26</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 3,6</t>
+          <t>-10,52; 3,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 2,61</t>
+          <t>-12,16; 1,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,14; -1,52</t>
+          <t>-15,28; -2,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 7,45</t>
+          <t>-14,29; 0,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 8,73</t>
+          <t>-2,03; 10,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 7,01</t>
+          <t>-8,75; 5,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,55</t>
+          <t>-2,74; 8,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 2,52</t>
+          <t>-4,27; 6,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 4,03</t>
+          <t>-4,52; 6,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 2,86</t>
+          <t>-1,29; 11,14</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 1,06</t>
+          <t>-11,63; 1,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 2,43</t>
+          <t>-3,79; 9,8</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 4,93</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 2,74</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-7,9; 0,47</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 3,74</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 4,43</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 5,9</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-14,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-21,81%</t>
+          <t>-25,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-39,92%</t>
+          <t>-42,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-34,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>-5,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-19,74%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-7,03%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-17,41%</t>
+          <t>-24,16%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>21,58%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-8,83%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-18,62%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-3,85%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-2,11%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,02; 25,81</t>
+          <t>-47,87; 25,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,8; 18,08</t>
+          <t>-50,76; 12,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,03; -9,73</t>
+          <t>-63,95; -13,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 49,4</t>
+          <t>-60,09; 1,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 61,52</t>
+          <t>-16,4; 117,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 48,84</t>
+          <t>-42,3; 40,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 47,83</t>
+          <t>-14,3; 61,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,29; 18,49</t>
+          <t>-22,71; 49,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 25,82</t>
+          <t>-23,4; 48,3</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 18,97</t>
+          <t>-7,01; 79,0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 7,24</t>
+          <t>-47,93; 11,13</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 16,53</t>
+          <t>-21,52; 105,89</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-20,03; 31,92</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-30,06; 18,63</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-39,47; 3,33</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-26,37; 25,55</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-28,1; 29,53</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-25,05; 44,57</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>23,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-25,22</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-11,21</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>13,2</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-22,34</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>18,46</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>-23,77</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 10,57</t>
+          <t>-8,56; 11,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 16,0</t>
+          <t>-3,19; 15,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 17,38</t>
+          <t>-1,1; 16,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 11,49</t>
+          <t>13,98; 31,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 6,68</t>
+          <t>-33,06; -15,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 4,64</t>
+          <t>-12,04; 9,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 5,87</t>
+          <t>-10,1; 6,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-19,74; -2,5</t>
+          <t>-10,53; 5,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 6,91</t>
+          <t>-9,88; 5,25</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 7,5</t>
+          <t>5,56; 19,84</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 8,75</t>
+          <t>-30,76; -14,48</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 1,86</t>
+          <t>-6,4; 10,94</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 6,99</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 8,12</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 9,32</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>12,53; 24,23</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-29,81; -17,5</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 7,18</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-31,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-15,14%</t>
+          <t>-3,98%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-3,0%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>-25,6%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>28,32%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>-28,41%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 20,5</t>
+          <t>-13,88; 22,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 31,74</t>
+          <t>-5,43; 30,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 34,4</t>
+          <t>-1,48; 32,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 22,48</t>
+          <t>22,87; 63,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 9,61</t>
+          <t>-40,49; -19,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 6,32</t>
+          <t>-19,05; 18,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 8,76</t>
+          <t>-13,0; 9,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,91; -3,54</t>
+          <t>-13,31; 8,54</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 11,43</t>
+          <t>-12,64; 7,12</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 12,14</t>
+          <t>7,27; 28,31</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 14,38</t>
+          <t>-34,17; -17,31</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 2,87</t>
+          <t>-9,64; 18,71</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 11,3</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 13,3</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 15,21</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 39,87</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-35,0; -21,34</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-10,13; 12,92</t>
         </is>
       </c>
     </row>
@@ -2041,57 +2689,87 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
           <t>-0,66</t>
         </is>
       </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>-2,79</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-2,65</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-1,64</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 2,18</t>
+          <t>-10,29; 2,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 1,33</t>
+          <t>-8,22; 1,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 1,99</t>
+          <t>-4,78; 2,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 3,64</t>
+          <t>0,19; 5,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,16</t>
+          <t>-10,04; -2,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 1,68</t>
+          <t>-8,18; 1,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 2,8</t>
+          <t>-3,89; 4,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 5,52</t>
+          <t>-7,25; 1,75</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 2,14</t>
+          <t>-6,46; 2,75</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 0,58</t>
+          <t>-5,51; 4,5</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,48</t>
+          <t>-6,32; 5,62</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,64</t>
+          <t>-6,95; 4,28</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 2,66</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 0,43</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 1,51</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 3,96</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 1,37</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 1,93</t>
         </is>
       </c>
     </row>
@@ -2177,57 +2885,87 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>-5,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>-3,21%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>-3,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-1,84%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>-0,58%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-1,58%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-1,99%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 2,26</t>
+          <t>-10,94; 2,15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 1,3</t>
+          <t>-8,58; 1,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,08</t>
+          <t>-4,86; 2,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,81</t>
+          <t>0,19; 5,64</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 4,51</t>
+          <t>-10,06; -2,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 1,83</t>
+          <t>-8,4; 1,41</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 3,02</t>
+          <t>-4,06; 4,62</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,97</t>
+          <t>-7,54; 1,91</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 2,28</t>
+          <t>-6,7; 3,03</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 0,66</t>
+          <t>-5,9; 4,86</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 1,55</t>
+          <t>-6,5; 6,17</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,86</t>
+          <t>-7,23; 4,57</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 2,83</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 0,47</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 1,6</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 4,19</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 1,46</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 2,04</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
           <t>-0,5</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-3,28</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
           <t>-1,37</t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,56</t>
+          <t>-4,51; 4,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,74</t>
+          <t>-4,49; 3,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,97</t>
+          <t>-4,54; 3,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 5,38</t>
+          <t>-0,35; 8,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 3,63</t>
+          <t>-7,56; 1,86</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 1,33</t>
+          <t>-5,34; 4,11</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 1,75</t>
+          <t>-3,43; 3,9</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,71</t>
+          <t>-5,32; 1,52</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,48</t>
+          <t>-5,4; 1,73</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,2</t>
+          <t>-0,36; 7,6</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,57</t>
+          <t>-7,37; 1,31</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,48</t>
+          <t>-3,79; 5,1</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 2,64</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 1,5</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 1,58</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 7,12</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; -0,4</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 3,45</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
           <t>-1,42%</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-1,32%</t>
-        </is>
-      </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-8,34%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-4,8%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-5,66%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-4,65%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-7,68%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
           <t>-3,7%</t>
         </is>
       </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>-3,15%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>1,24%</t>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-3,09%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-8,09%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 10,85</t>
+          <t>-12,15; 12,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 11,49</t>
+          <t>-12,19; 9,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 12,06</t>
+          <t>-12,21; 10,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 16,44</t>
+          <t>-0,93; 25,69</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 10,04</t>
+          <t>-18,59; 4,75</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 3,53</t>
+          <t>-13,7; 12,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 4,94</t>
+          <t>-8,56; 10,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 9,93</t>
+          <t>-13,08; 4,38</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 6,95</t>
+          <t>-13,39; 4,52</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 3,33</t>
+          <t>-0,91; 20,25</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 4,32</t>
+          <t>-16,38; 3,19</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 9,82</t>
+          <t>-9,2; 13,94</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 7,4</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 4,21</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; 4,41</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 19,72</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-16,04; -0,93</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-8,42; 9,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
